--- a/cohorts3/ds/cohorts-2024-01-18.xlsx
+++ b/cohorts3/ds/cohorts-2024-01-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah.sharepoint.com/sites/HolmenLab/Shared Documents/General/garrett hl-onedrive/R/nf1/cohorts3/ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8E1E0E81B8EAA75E15370F7932D12297E3A9FE46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4EC09AB-D2C0-4B01-AFFD-2F5D105FF494}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_8E1E0E81B8EAA75E15370F7932D12297E3A9FE46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E104ACF-30D7-435F-BC66-11DF71F6B8BF}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="1275" windowWidth="28110" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="510" windowWidth="27315" windowHeight="16950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3943,9 +3943,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3961,6 +3964,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4282,128 +4289,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H291" workbookViewId="0">
-      <selection activeCell="T261" sqref="T261:T268"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="20" max="20" width="48.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="95.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/cohorts3/ds/cohorts-2024-01-18.xlsx
+++ b/cohorts3/ds/cohorts-2024-01-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah.sharepoint.com/sites/HolmenLab/Shared Documents/General/garrett hl-onedrive/R/nf1/cohorts3/ds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_8E1E0E81B8EAA75E15370F7932D12297E3A9FE46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E104ACF-30D7-435F-BC66-11DF71F6B8BF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_8E1E0E81B8EAA75E15370F7932D12297E3A9FE46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07942D1-9D21-4207-B1EC-2898F76DF97F}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="510" windowWidth="27315" windowHeight="16950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="1560" windowWidth="22875" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3964,10 +3964,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4289,11 +4285,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" s="2" customFormat="1" ht="95.25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
@@ -41664,6 +41664,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" xsi:nil="true"/>
@@ -41672,15 +41681,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41885,20 +41885,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BE78B9D-48A2-4989-A442-B1BC3910336E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2499FDD7-5E20-44D7-A7B3-512F832EE0BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="fe56dbcb-f404-42a8-8006-471f9c1a2fc9"/>
     <ds:schemaRef ds:uri="98fb7176-381e-4eb6-825b-93e64c92b6ea"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BE78B9D-48A2-4989-A442-B1BC3910336E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
